--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\OneDrive\Projects\maps-scrap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\OneDrive\Projects\myuniverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -351,10 +351,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -380,8 +387,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,10 +883,10 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -923,10 +931,10 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -987,18 +995,18 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1139,18 +1147,18 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1211,10 +1219,10 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1484,5 +1492,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\OneDrive\Projects\myuniverse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chonnakan/OneDrive/Projects/myuniverse/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="110">
   <si>
     <t>ธนาคาร</t>
   </si>
@@ -345,12 +352,21 @@
   </si>
   <si>
     <t>สาขาของผู้ให้บริการโทรศัพท์มือถือ</t>
+  </si>
+  <si>
+    <t>ลอว์สัน</t>
+  </si>
+  <si>
+    <t>Lawson</t>
+  </si>
+  <si>
+    <t>CJ express</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,17 +688,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.75" customWidth="1"/>
-    <col min="2" max="2" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +706,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -698,7 +714,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -706,7 +722,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -714,7 +730,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -722,7 +738,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -730,7 +746,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -738,7 +754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -746,7 +762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -754,7 +770,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -762,7 +778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -770,7 +786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -778,7 +794,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -786,7 +802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -794,7 +810,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -802,7 +818,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -810,7 +826,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -818,7 +834,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -826,7 +842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -834,7 +850,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -842,7 +858,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -850,7 +866,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -858,7 +874,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -866,7 +882,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -874,7 +890,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -882,7 +898,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -890,7 +906,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -898,7 +914,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -906,7 +922,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -914,7 +930,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -922,7 +938,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -930,7 +946,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -938,7 +954,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -946,7 +962,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -954,7 +970,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -962,7 +978,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -970,7 +986,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -978,7 +994,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -986,7 +1002,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -994,7 +1010,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1002,7 +1018,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -1010,7 +1026,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -1018,7 +1034,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1026,7 +1042,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -1034,7 +1050,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -1042,7 +1058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -1050,7 +1066,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -1058,7 +1074,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -1066,7 +1082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -1074,7 +1090,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -1082,7 +1098,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -1090,7 +1106,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -1098,7 +1114,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -1106,7 +1122,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -1114,7 +1130,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -1122,7 +1138,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -1130,7 +1146,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -1138,7 +1154,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -1146,7 +1162,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>20</v>
       </c>
@@ -1154,7 +1170,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>36</v>
       </c>
@@ -1162,7 +1178,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -1170,7 +1186,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -1178,7 +1194,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -1186,7 +1202,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -1194,7 +1210,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -1202,7 +1218,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>48</v>
       </c>
@@ -1210,7 +1226,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -1218,7 +1234,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -1226,7 +1242,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -1234,7 +1250,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -1242,7 +1258,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -1250,7 +1266,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -1258,7 +1274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -1266,7 +1282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -1274,7 +1290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -1282,7 +1298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -1290,7 +1306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -1298,7 +1314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -1306,7 +1322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -1314,7 +1330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -1322,7 +1338,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -1330,7 +1346,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -1338,7 +1354,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -1346,7 +1362,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -1354,7 +1370,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -1362,7 +1378,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -1370,7 +1386,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>50</v>
       </c>
@@ -1378,7 +1394,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -1386,7 +1402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>51</v>
       </c>
@@ -1394,7 +1410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>31</v>
       </c>
@@ -1402,7 +1418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>32</v>
       </c>
@@ -1410,7 +1426,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>52</v>
       </c>
@@ -1418,7 +1434,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>53</v>
       </c>
@@ -1426,7 +1442,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>54</v>
       </c>
@@ -1434,7 +1450,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>55</v>
       </c>
@@ -1442,7 +1458,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>56</v>
       </c>
@@ -1450,7 +1466,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>90</v>
       </c>
@@ -1458,7 +1474,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -1466,7 +1482,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -1474,7 +1490,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>33</v>
       </c>
@@ -1482,7 +1498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -1494,4 +1510,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chonnakan/OneDrive/Projects/myuniverse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\OneDrive\Projects\myuniverse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="110">
   <si>
     <t>ธนาคาร</t>
   </si>
@@ -366,7 +366,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -686,19 +686,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +704,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -714,7 +712,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -722,7 +720,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -730,7 +728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -738,7 +736,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -746,7 +744,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -754,7 +752,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -762,7 +760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -770,7 +768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -778,7 +776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -786,7 +784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -794,7 +792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -802,7 +800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -810,7 +808,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -818,7 +816,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -826,7 +824,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -834,7 +832,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -842,7 +840,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -850,7 +848,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -858,7 +856,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -866,7 +864,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -874,7 +872,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -882,7 +880,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -890,7 +888,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -898,7 +896,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -906,7 +904,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -914,7 +912,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -922,7 +920,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -930,7 +928,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -938,7 +936,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -946,7 +944,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -954,7 +952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -962,7 +960,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -970,7 +968,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -978,7 +976,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -986,7 +984,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -994,7 +992,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1002,7 +1000,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -1010,7 +1008,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,7 +1016,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -1034,7 +1032,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1042,7 +1040,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -1050,7 +1048,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -1058,7 +1056,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -1066,7 +1064,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -1082,7 +1080,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -1090,7 +1088,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -1098,7 +1096,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -1106,7 +1104,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -1114,7 +1112,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -1122,7 +1120,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -1130,7 +1128,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -1138,7 +1136,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -1146,7 +1144,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -1154,7 +1152,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -1162,7 +1160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>20</v>
       </c>
@@ -1170,7 +1168,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>36</v>
       </c>
@@ -1178,7 +1176,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -1186,7 +1184,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -1194,7 +1192,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -1202,7 +1200,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -1210,7 +1208,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -1218,7 +1216,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>48</v>
       </c>
@@ -1226,7 +1224,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -1234,7 +1232,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
@@ -1242,7 +1240,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -1250,7 +1248,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -1258,7 +1256,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -1266,7 +1264,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -1274,7 +1272,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -1282,7 +1280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -1290,7 +1288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -1298,7 +1296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>25</v>
       </c>
@@ -1306,7 +1304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -1314,7 +1312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -1322,7 +1320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -1330,7 +1328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>85</v>
       </c>
@@ -1338,7 +1336,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -1346,7 +1344,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>87</v>
       </c>
@@ -1354,7 +1352,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -1362,7 +1360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>89</v>
       </c>
@@ -1370,139 +1368,163 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>29</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B88" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>13</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B89" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>50</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B90" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>30</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>51</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B92" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>31</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B93" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>32</v>
-      </c>
-      <c r="B91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>52</v>
-      </c>
-      <c r="B92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>53</v>
-      </c>
-      <c r="B93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>54</v>
       </c>
       <c r="B94" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B95" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B96" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B98" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B99" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>33</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B103" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>34</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B104" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1516,13 +1538,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -1530,7 +1552,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1538,7 +1560,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>109</v>
       </c>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,9 +32,327 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="112">
+  <si>
+    <t>ธนาคาร</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>CDM</t>
+  </si>
+  <si>
+    <t>บริษัทเงินทุน</t>
+  </si>
+  <si>
+    <t>บริษัทเครดิตฟองซิเอร์</t>
+  </si>
+  <si>
+    <t>บริษัทหลักทรัพย์</t>
+  </si>
+  <si>
+    <t>ออมสิน</t>
+  </si>
+  <si>
+    <t>ธกส</t>
+  </si>
+  <si>
+    <t>ธอส</t>
+  </si>
+  <si>
+    <t>ธสน</t>
+  </si>
+  <si>
+    <t>ธนาคารอิสลาม</t>
+  </si>
+  <si>
+    <t>SME Bank</t>
+  </si>
+  <si>
+    <t>ประกัน</t>
+  </si>
+  <si>
+    <t>เทสโก้</t>
+  </si>
+  <si>
+    <t>บัตรกรุงไทย</t>
+  </si>
+  <si>
+    <t>บัตรกรุงศรีอยุธยา</t>
+  </si>
+  <si>
+    <t>แคปปิตอล โอเค</t>
+  </si>
+  <si>
+    <t>กรุงไทยธุรกิจลีสซิ่ง</t>
+  </si>
+  <si>
+    <t>ลิสซิ่ง</t>
+  </si>
+  <si>
+    <t>แฟคตอริ่ง</t>
+  </si>
+  <si>
+    <t>เงินติดล้อ</t>
+  </si>
+  <si>
+    <t>สหกรณ์</t>
+  </si>
+  <si>
+    <t>พสิษฐ์ภาคิณ</t>
+  </si>
+  <si>
+    <t>กลุ่มเกษตกร</t>
+  </si>
+  <si>
+    <t>กลุ่มอาชีพ</t>
+  </si>
+  <si>
+    <t>กองทุนหมู่บ้าน</t>
+  </si>
+  <si>
+    <t>ออมทรัพย์เพื่อการผลิต</t>
+  </si>
+  <si>
+    <t>การเงินชุมชน</t>
+  </si>
+  <si>
+    <t>กลุ่มสัจจะ</t>
+  </si>
+  <si>
+    <t>บิ๊กซี</t>
+  </si>
+  <si>
+    <t>ห้างสรรพสินค้า</t>
+  </si>
+  <si>
+    <t>ไปรษณีย์</t>
+  </si>
+  <si>
+    <t>AIS</t>
+  </si>
+  <si>
+    <t>ปั๊มน้ำมัน</t>
+  </si>
+  <si>
+    <t>ตู้เติมเงิน</t>
+  </si>
+  <si>
+    <t>อีซี่บาย</t>
+  </si>
+  <si>
+    <t>เงินสดทันใจ</t>
+  </si>
+  <si>
+    <t>ซิงเกอร์ประเทศไทย</t>
+  </si>
+  <si>
+    <t>ไซเบอร์เนตติคส์</t>
+  </si>
+  <si>
+    <t>ไทยพาณิชย์ลีสซิ่ง</t>
+  </si>
+  <si>
+    <t>มีนาลิสซิ่ง</t>
+  </si>
+  <si>
+    <t>วัฒนาธนวินทรัพย์</t>
+  </si>
+  <si>
+    <t>ศักดิ์สยามพาณิชย์ลิสซิ่ง</t>
+  </si>
+  <si>
+    <t>สยามเจเนอรัลแฟคตอริ่ง</t>
+  </si>
+  <si>
+    <t>สินมิตร</t>
+  </si>
+  <si>
+    <t>เอเซียเสริมกิจลีสซิ่ง</t>
+  </si>
+  <si>
+    <t>ปิยะระยองกรุ๊ป</t>
+  </si>
+  <si>
+    <t>พี.เอส.เอ็น.ลีสซิ่ง</t>
+  </si>
+  <si>
+    <t>มีนาลีสซิ่ง</t>
+  </si>
+  <si>
+    <t>สหไพบูลย์(2558)</t>
+  </si>
+  <si>
+    <t>makro</t>
+  </si>
+  <si>
+    <t>ศูนย์การค้า</t>
+  </si>
+  <si>
+    <t>telewiz</t>
+  </si>
+  <si>
+    <t>เทเลวิซ</t>
+  </si>
+  <si>
+    <t>ทรูช็อป</t>
+  </si>
+  <si>
+    <t>Dtac</t>
+  </si>
+  <si>
+    <t>ดีแทค</t>
+  </si>
+  <si>
+    <t>เจเนอรัล คาร์ด เซอร์วิสเซส</t>
+  </si>
+  <si>
+    <t>ซิตี้ คอนซูเมอร์</t>
+  </si>
+  <si>
+    <t>เทสโก้ คาร์ด</t>
+  </si>
+  <si>
+    <t>อยุธยา แคปปิตอล</t>
+  </si>
+  <si>
+    <t>อิออน ธนสินทรัพย์</t>
+  </si>
+  <si>
+    <t>จี แคปปิตอล</t>
+  </si>
+  <si>
+    <t>เจ เอ็ม ที เน็ทเวอร์ค เซอร์วิสเซ็ส</t>
+  </si>
+  <si>
+    <t>เจ เอ็ม ที พลัส</t>
+  </si>
+  <si>
+    <t>ซิตี้คอร์ป ลิสซิ่ง(ประเทศไทย)</t>
+  </si>
+  <si>
+    <t>เทสโก้ คาร์ด เซอร์วิสเซส</t>
+  </si>
+  <si>
+    <t>ไทยเอซ แคปปิตอล</t>
+  </si>
+  <si>
+    <t>พรอมิส (ประเทศไทย)</t>
+  </si>
+  <si>
+    <t>เมืองไทย ลิสซิ่ง</t>
+  </si>
+  <si>
+    <t>แมคคาเล กรุ๊พ</t>
+  </si>
+  <si>
+    <t>รีโซลูชั่น เวย์</t>
+  </si>
+  <si>
+    <t>วี แคช เอ็นเตอร์ไพรส์</t>
+  </si>
+  <si>
+    <t>อยุธยา แคปปิตอล เซอร์วิสเซส</t>
+  </si>
+  <si>
+    <t>อยุธยา แคปปิตอล ออโต้ ลีส</t>
+  </si>
+  <si>
+    <t>อินเทลลิเจนท์ ทีที. พาวเวอร์</t>
+  </si>
+  <si>
+    <t>อิออน ธนสินทรัพย์ (ไทยแลนด์)</t>
+  </si>
+  <si>
+    <t>อีซี่ บาย</t>
+  </si>
+  <si>
+    <t>ไอร่า แอนด์ ไอฟุล</t>
+  </si>
+  <si>
+    <t>โดเมสติค แคปปิตอล 2015</t>
+  </si>
+  <si>
+    <t>ทีเค เงินสดทันใจ</t>
+  </si>
+  <si>
+    <t>ไทยเอช แคปปิตอล</t>
+  </si>
+  <si>
+    <t>เมืองไทย ลีสซิ่ง</t>
+  </si>
+  <si>
+    <t>ไมด้า ลีสซิ่ง</t>
+  </si>
+  <si>
+    <t>อินเทลลิเจนท์ ทีที พาวเวอร์</t>
+  </si>
+  <si>
+    <t>family mart</t>
+  </si>
+  <si>
+    <t>max valu</t>
+  </si>
+  <si>
+    <t>max value</t>
+  </si>
+  <si>
+    <t>108 shop</t>
+  </si>
+  <si>
+    <t>cp freshmart</t>
+  </si>
+  <si>
+    <t>ศูนย์บริการ ทีโอที</t>
+  </si>
+  <si>
+    <t>ศูนย์บริการ TOT</t>
+  </si>
+  <si>
+    <t>เจมาร์ท</t>
+  </si>
+  <si>
+    <t>โตโยต้าลิสซิ่ง</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>atm</t>
+  </si>
+  <si>
+    <t>cdm</t>
+  </si>
+  <si>
+    <t>บง.</t>
+  </si>
+  <si>
+    <t>บลจ.</t>
+  </si>
+  <si>
+    <t>บค.</t>
+  </si>
+  <si>
+    <t>sfi</t>
+  </si>
+  <si>
+    <t>Non-bank - credit card</t>
+  </si>
+  <si>
+    <t>Non-bank - p-loan</t>
+  </si>
+  <si>
+    <t>Non-bank - nano-finance</t>
+  </si>
   <si>
     <t>ร้านสะดวกซื้อ</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>สาขาของผู้ให้บริการโทรศัพท์มือถือ</t>
   </si>
   <si>
     <t>ลอว์สัน</t>
@@ -55,10 +374,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,8 +410,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,11 +693,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -380,18 +705,834 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>83</v>
+      </c>
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B99" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -405,33 +1546,64 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
